--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd53_130.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd53_130.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N474"/>
+  <dimension ref="A1:N475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3443400859832764</v>
+        <v>0.455625057220459</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001605987548828125</v>
+        <v>0.001297235488891602</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0471339225769043</v>
+        <v>0.06171512603759766</v>
       </c>
     </row>
     <row r="8">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0.1054378552439726</v>
+        <v>0.10542693244798</v>
       </c>
     </row>
     <row r="469">
@@ -3752,116 +3752,126 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>6022.218744517266</v>
+        <v>6177.618744517265</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>9</v>
+        <v>0.999462999594022</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>337</v>
+        <v>9</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>3</v>
+        <v>448</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0.4142918586730957</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>0.5589771270751953</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B475" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C475" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D474" t="inlineStr">
+      <c r="D475" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E474" t="inlineStr">
+      <c r="E475" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F474" t="inlineStr">
+      <c r="F475" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G474" t="inlineStr">
+      <c r="G475" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
+      <c r="H475" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I474" t="inlineStr">
+      <c r="I475" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J474" t="inlineStr">
+      <c r="J475" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K474" t="inlineStr">
+      <c r="K475" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L474" t="inlineStr">
+      <c r="L475" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M474" t="inlineStr">
+      <c r="M475" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N474" t="inlineStr">
+      <c r="N475" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd53_130.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd53_130.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.455625057220459</v>
+        <v>0.0008177757263183594</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001297235488891602</v>
+        <v>0.0004842281341552734</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06171512603759766</v>
+        <v>0.06599974632263184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 0), (1, 0), (2, 1), (0, 1), (0, 0), (1, 2), (1, 1)]</t>
+          <t>[[2, 0], [1, 0], [2, 1], [0, 1], [0, 0], [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 1), (0, 2), (0, 1), (1, 0), (2, 1), (1, 2)]</t>
+          <t>[[0, 0], [1, 1], [0, 2], [0, 1], [1, 0], [2, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>[(0, 2), (1, 2), (2, 0), (0, 1), (1, 1), (0, 0), (1, 0)]</t>
+          <t>[[0, 2], [1, 2], [2, 0], [0, 1], [1, 1], [0, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0.5589771270751953</v>
+        <v>0.08802580833435059</v>
       </c>
     </row>
     <row r="475">
